--- a/biology/Biochimie/Isomérase/Isomérase.xlsx
+++ b/biology/Biochimie/Isomérase/Isomérase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Isom%C3%A9rase</t>
+          <t>Isomérase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biochimie, une isomérase est une enzyme qui catalyse les changements au sein d'une molécule, souvent par réarrangement des groupements fonctionnels et conversion de la molécule en l'un de ses isomères. Les isomérases catalysent des réactions du type :
 A → B
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isom%C3%A9rase</t>
+          <t>Isomérase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom des isomérases est de la forme « substrat isomérase » (par exemple, énoyl coA isomérase), ou « substrat type d'isomérase » (par exemple, phosphoglucomutase).
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isom%C3%A9rase</t>
+          <t>Isomérase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les isomérases sont regroupées dans la classe EC 5 dans la nomenclature EC. Elles sont ensuite réparties dans six sous-classes :
 EC 5.1 qui regroupe les enzymes qui catalysent des réactions de racémisation (racémases) et d'épimerisation (épimérases)
